--- a/CnE2PLC.Reporting/CnE_Template.xlsx
+++ b/CnE2PLC.Reporting/CnE_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwp00\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rwp00\source\repos\CnE2PLC_master\CnE2PLC.Reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BD86E4-F17A-4AC9-A9A8-F06DCA58CA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ABCDDE-943A-40FA-947D-FCA7AEA3C3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tank Battery" sheetId="32" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_Fill" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tank Battery'!$A$14:$S$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tank Battery'!$A$14:$R$15</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Table1_In1" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="_Table1_In1" hidden="1">#REF!</definedName>
@@ -226,60 +226,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
-  <fonts count="44">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -289,53 +239,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="24"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color indexed="24"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color indexed="24"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="24"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="24"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="24"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="24"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -352,25 +255,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -379,20 +263,6 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="CG Omega"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="CG Omega"/>
     </font>
     <font>
       <sz val="8"/>
@@ -471,26 +341,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial1"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,14 +409,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="58">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -573,8 +419,66 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -585,63 +489,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -649,10 +497,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -660,15 +538,80 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -678,9 +621,33 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -693,7 +660,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -701,156 +668,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -885,26 +707,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -940,45 +742,6 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1159,30 +922,6 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color auto="1"/>
       </left>
       <right style="thick">
@@ -1276,469 +1015,258 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="82">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="40" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="6" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="8" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="56" applyNumberFormat="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="93">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="26" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="8" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="9" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="3" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="43" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="28" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="45" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="29" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="31" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="32" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="3" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="51" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
-    <cellStyle name="BOLD" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="ColStyle1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="ColStyle2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="ColStyle3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="ColStyle4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="ColStyle9" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Excel Built-in Input" xfId="34" xr:uid="{07D5E925-31A6-49B6-8093-87E4CF046CB2}"/>
-    <cellStyle name="F2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="F3" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="F4" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="F5" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="F6" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="F7" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="F8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Millares [0]_Well Timing" xfId="18" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Millares_Well Timing" xfId="19" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Moneda [0]_Well Timing" xfId="20" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Moneda_Well Timing" xfId="21" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Normal 2 3" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Normal 2 3 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Normal 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Normal 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Normal 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Normal 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Normal 6" xfId="30" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Normal 7" xfId="31" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Normal 8" xfId="32" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="NUM" xfId="15" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Percent 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Percent 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="TITLE" xfId="17" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FFA6A6A6"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -2094,10 +1622,10 @@
   <sheetPr codeName="Sheet10">
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="11.25"/>
@@ -2119,493 +1647,466 @@
     <col min="15" max="15" width="5.5703125" style="4" customWidth="1"/>
     <col min="16" max="16" width="7" style="4" customWidth="1"/>
     <col min="17" max="17" width="7.42578125" style="4" customWidth="1"/>
-    <col min="18" max="19" width="5" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="9.42578125" style="4"/>
+    <col min="18" max="18" width="5" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="9.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="25" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="82"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="40"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86" t="s">
+      <c r="J2" s="74"/>
+      <c r="K2" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="66" t="s">
+      <c r="N2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="59"/>
+      <c r="R2" s="41"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="19">
         <v>500</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="59"/>
+      <c r="D3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="42"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="19">
         <v>10</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="59"/>
+      <c r="D4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="46"/>
+      <c r="I4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="54"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="42"/>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="19">
         <v>20</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="59"/>
+      <c r="D5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="46"/>
+      <c r="I5" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="54"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="42"/>
     </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="19">
         <v>30</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="59"/>
+      <c r="D6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="46"/>
+      <c r="I6" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="54"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="42"/>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="19">
         <v>40</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="59"/>
+      <c r="D7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="46"/>
+      <c r="I7" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="42"/>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A8" s="44"/>
+      <c r="B8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="19">
         <v>50</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="59"/>
+      <c r="D8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="54"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="42"/>
     </row>
-    <row r="9" spans="1:20" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A9" s="44"/>
+      <c r="B9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="19">
         <v>60</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="59"/>
+      <c r="D9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="54"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="42"/>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="44"/>
+      <c r="B10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="19">
         <v>70</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="62"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="59"/>
+      <c r="D10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="42"/>
     </row>
-    <row r="11" spans="1:20" s="2" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A11" s="44"/>
+      <c r="B11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="19">
         <v>80</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="62"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="59"/>
+      <c r="D11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="46"/>
+      <c r="I11" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="42"/>
     </row>
-    <row r="12" spans="1:20" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <v>99</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="60"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="42"/>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:18" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A13" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="70" t="s">
+      <c r="H13" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="70" t="s">
+      <c r="J13" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="72" t="s">
+      <c r="K13" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="89"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="37" t="s">
+      <c r="L13" s="78"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="33"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
+      <c r="R13" s="30"/>
     </row>
-    <row r="14" spans="1:20" s="3" customFormat="1" ht="119.25" customHeight="1" thickBot="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="39" t="s">
+    <row r="14" spans="1:18" s="3" customFormat="1" ht="119.25" customHeight="1" thickBot="1">
+      <c r="A14" s="48"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="R14" s="34"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="44"/>
+      <c r="R14" s="31"/>
     </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" ht="20.85" customHeight="1" thickTop="1">
-      <c r="A15" s="31"/>
+    <row r="15" spans="1:18" s="3" customFormat="1" ht="20.85" customHeight="1" thickTop="1">
+      <c r="A15" s="28"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2619,15 +2120,13 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="15"/>
     </row>
-    <row r="16" spans="1:20" ht="18">
-      <c r="A16" s="32"/>
+    <row r="16" spans="1:18" ht="18">
+      <c r="A16" s="29"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2638,43 +2137,20 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="19"/>
-    </row>
-    <row r="17" spans="1:19" ht="18">
-      <c r="A17" s="32"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="19"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A14:S15" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A14:R15" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <dataConsolidate/>
-  <mergeCells count="58">
+  <mergeCells count="54">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -2703,22 +2179,16 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="Q2:Q12"/>
-    <mergeCell ref="R2:R12"/>
-    <mergeCell ref="S2:S12"/>
-    <mergeCell ref="T2:T12"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G8:H8"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
@@ -2730,64 +2200,37 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
+    <mergeCell ref="Q2:Q12"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A16:E17 G16:O17">
-    <cfRule type="expression" dxfId="12" priority="1">
+  <conditionalFormatting sqref="A16:E16 G16:O16 R16">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>$F16="Under Review"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
-      <formula>$F16="Approved Deviation"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="3">
-      <formula>$F16="Standard IO"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
-      <formula>$F16="New Project"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>$F16="Not In Use"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:S12 T15">
-    <cfRule type="expression" dxfId="8" priority="64">
-      <formula>R$13="NO"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="65">
-      <formula>R$13="NEW"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R14:S17">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>R$13="NO"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>R$13="NEW"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R16:S17">
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>$F16="Under Review"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$F16="Approved Deviation"</formula>
     </cfRule>
     <cfRule type="expression" priority="10">
       <formula>$F16="Standard IO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>$F16="New Project"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>$F16="Not In Use"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2 T14">
-    <cfRule type="expression" dxfId="0" priority="63" stopIfTrue="1">
-      <formula>AND(T$4&lt;1,T$4&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="R14:R16 R2:R12">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>R$13="NO"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>R$13="NEW"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R13:T13" xr:uid="{3B3C1F17-F6A6-4493-895D-5B28AAC2926F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R13" xr:uid="{3B3C1F17-F6A6-4493-895D-5B28AAC2926F}">
       <formula1>"YES, NO, NEW"</formula1>
     </dataValidation>
   </dataValidations>
